--- a/design/pathway_health_log.xlsx
+++ b/design/pathway_health_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192FA5B0829D3B0A/Documents/Learning/Analytics Accelerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1017" documentId="8_{3526AFBA-47EF-40FF-A131-EE5AB21064B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93DF735A-1FDE-4C70-9F4D-99E6667FCA49}"/>
+  <xr:revisionPtr revIDLastSave="1095" documentId="8_{3526AFBA-47EF-40FF-A131-EE5AB21064B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADC555F-92C6-45CC-B6BB-949E43E4BF99}"/>
   <bookViews>
     <workbookView xWindow="-3488" yWindow="8002" windowWidth="21796" windowHeight="11625" firstSheet="1" activeTab="4" xr2:uid="{DBBFE7E7-9DCB-4607-BB10-B6D3FC44230D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="167">
   <si>
     <t>Tab</t>
   </si>
@@ -869,12 +869,6 @@
 Health For All, #CoverageMatters, and #HealthyLiving are the most balanced: high signups (~3.5K-3.7K), average claim amounts, and low CPS (~$0.7-$1.8). However, signup rates remain low across all categories, leaving room for improvement.</t>
   </si>
   <si>
-    <t>Value Reporting: Signup Metrics, CTR, and Cost by Campaign Type and Category</t>
-  </si>
-  <si>
-    <t>Signups, Signup Rate, CTR, Cost, CPS by Campaign Category, Campaign Type</t>
-  </si>
-  <si>
     <t>Value Reporting: Signup Metrics, CTR, and Cost by Campaign Type</t>
   </si>
   <si>
@@ -882,6 +876,78 @@
   </si>
   <si>
     <t>Offer Announcement is the least efficient campaign type, with a CPS of $99.70. Covid Awareness follows at $13.14 CPS. Both are several times less efficient than the rest, which range from $1.33 to $5.30.</t>
+  </si>
+  <si>
+    <t>Value Reporting: Signups by Campaign Category / Campaign Type and State</t>
+  </si>
+  <si>
+    <t>Signups, Campaign Category / Campaign Type, State</t>
+  </si>
+  <si>
+    <t>Half ($8.2K) of all signups (16.3K) came from NJ. In 6 out of 7 campaign types, NJ holds the highest signup count for that type. Four NJ campaign types that exceed 1K+ signups are: Product Promotion, Health Awareness, Policy Information, and Customer Testimonial. All other states are below 500 per campaign type.</t>
+  </si>
+  <si>
+    <t>Funnel Stage</t>
+  </si>
+  <si>
+    <t>Metrics / Dimensions</t>
+  </si>
+  <si>
+    <t>Insight / Finding</t>
+  </si>
+  <si>
+    <t>Cause / Explanation</t>
+  </si>
+  <si>
+    <t>~16K total signups; range: 23 (Golden Years Security) to 3.7K (#HealthyLiving).</t>
+  </si>
+  <si>
+    <t>#HealthyLiving attracted the most conversions; Golden Years Security produced negligible conversions.</t>
+  </si>
+  <si>
+    <t>Certain campaigns absorbed budget without meaningful conversions, while others delivered strong cost efficiency.</t>
+  </si>
+  <si>
+    <t>Engagement did not translate to signups, indicating drop‑off after click.</t>
+  </si>
+  <si>
+    <t>Claims</t>
+  </si>
+  <si>
+    <t>~$13M total claim amount; range: $16K (Golden Years Security) to $3.9M (Compare Health Coverage). Avg claim amounts: $208.72 (Tailored Health Plans) to $410.44 (Compare Health Coverage).</t>
+  </si>
+  <si>
+    <t>49 signups and ~$23K claims unassigned to any campaign category; Family Coverage Plan missing click data.</t>
+  </si>
+  <si>
+    <t>Spend</t>
+  </si>
+  <si>
+    <t>These campaigns and pairs combined strong signup volume with low acquisition cost and moderate claim cost.</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>Engagement &amp; Conversions</t>
+  </si>
+  <si>
+    <t>Conversions, Spend, &amp; Claims</t>
+  </si>
+  <si>
+    <t>Campaign performance tracking is affected by the missing data.</t>
+  </si>
+  <si>
+    <t>Data Gaps</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Value Reporting: Marketing and Signup Metrics by Campaign Type and Category</t>
+  </si>
+  <si>
+    <t>Impressions, Clicks, CTR, Signups, Signup Rate, CPS, Cost by Campaign Category, Campaign Type</t>
   </si>
   <si>
     <t>Most balanced cost-to-signup ratios (CPS &lt; $1):
@@ -900,136 +966,82 @@
 Others:
 - Summer Wellness Tips-Product Promotion ($1.9K cost) 
 - #InsureYourHealth-Health Tips ($1.4K cost)
-Campaign pairs with high CTR but no conversions, suggesting possible funnel issues: 
+Campaign pairs with high CTR but no conversions, suggesting funnel issues: 
 - Preventive Care News-Product Promotion with 41.8% CTR
 - 3 Summer Wellness Tips campaigns: Product Promotion, Covid Awareness, Health Awareness with 21-26% CTR
 Data quality/reporting issue: Family Coverage Plan is missing clicks data.</t>
   </si>
   <si>
-    <t>Value Reporting: Signups by Campaign Category / Campaign Type and State</t>
-  </si>
-  <si>
-    <t>Signups, Campaign Category / Campaign Type, State</t>
-  </si>
-  <si>
-    <t>Half ($8.2K) of all signups (16.3K) came from NJ. In 6 out of 7 campaign types, NJ holds the highest signup count for that type. Four NJ campaign types that exceed 1K+ signups are: Product Promotion, Health Awareness, Policy Information, and Customer Testimonial. All other states are below 500 per campaign type.</t>
-  </si>
-  <si>
-    <t>Funnel Stage</t>
-  </si>
-  <si>
-    <t>Metrics / Dimensions</t>
-  </si>
-  <si>
-    <t>Insight / Finding</t>
-  </si>
-  <si>
-    <t>Cause / Explanation</t>
-  </si>
-  <si>
-    <t>Marketing Reach</t>
-  </si>
-  <si>
-    <t>Impressions &amp; Clicks</t>
-  </si>
-  <si>
-    <t>~9M impressions, ~852K clicks. Range: ~17K impressions (Health For All) to ~1.4M (Tailored Health Plans); ~6K clicks (Golden Years Security) to ~137K (Preventive Care News).</t>
-  </si>
-  <si>
-    <t>~16K total signups; range: 23 (Golden Years Security) to 3.7K (#HealthyLiving).</t>
-  </si>
-  <si>
-    <t>#HealthyLiving attracted the most conversions; Golden Years Security produced negligible conversions.</t>
-  </si>
-  <si>
-    <t>Cost Efficiency Spectrum</t>
-  </si>
-  <si>
-    <t>~$60K total spend. CPS ranged from $0.65 (#CoverageMatters) to $176.73 (Golden Years Security). Offer Announcement ($99.70 CPS) and Covid Awareness ($13.14 CPS) also inefficient.</t>
-  </si>
-  <si>
-    <t>Certain campaigns absorbed budget without meaningful conversions, while others delivered strong cost efficiency.</t>
-  </si>
-  <si>
-    <t>High-Value Campaigns</t>
-  </si>
-  <si>
-    <t>Health For All, #CoverageMatters, #HealthyLiving: 3.5K–3.7K signups, CPS $0.7–$1.8, average claim amounts. Within these, specific campaign–type pairs achieved CPS &lt; $1 (#CoverageMatters–Product Promotion, #HealthyLiving–Policy Info, Health For All–Health Awareness).</t>
-  </si>
-  <si>
-    <t>Conversion Gaps</t>
-  </si>
-  <si>
-    <t>Preventive Care News–Product Promotion (41.8% CTR, 0 signups); Summer Wellness Tips campaigns (21–26% CTR, 0–2 signups).</t>
-  </si>
-  <si>
-    <t>Engagement did not translate to signups, indicating drop‑off after click.</t>
-  </si>
-  <si>
-    <t>Claims</t>
-  </si>
-  <si>
-    <t>Claims &amp; Claim Amounts</t>
-  </si>
-  <si>
-    <t>~$13M total claim amount; range: $16K (Golden Years Security) to $3.9M (Compare Health Coverage). Avg claim amounts: $208.72 (Tailored Health Plans) to $410.44 (Compare Health Coverage).</t>
-  </si>
-  <si>
-    <t>Claim costs concentrated in Compare Health Coverage; other categories clustered in $200s.</t>
-  </si>
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>State Distribution</t>
-  </si>
-  <si>
-    <t>NJ accounts for half of all signups (8.2K of 16.3K) and $7.3M in claims (7× higher than NY). NJ leads in 6 of 7 campaign types, with 4 campaign types exceeding 1K signups. Other states remain below 500 signups per campaign type.</t>
-  </si>
-  <si>
-    <t>NJ’s dominance in both signups and claims reflects concentration of customer volume.</t>
-  </si>
-  <si>
-    <t>Attribution Gaps</t>
-  </si>
-  <si>
-    <t>49 signups and ~$23K claims unassigned to any campaign category; Family Coverage Plan missing click data.</t>
-  </si>
-  <si>
-    <t>Attribution and reporting gaps reduce completeness of campaign performance tracking.</t>
-  </si>
-  <si>
-    <t>Signup &amp; Claim Trends</t>
-  </si>
-  <si>
-    <t>Signups peaked for #HealthyLiving, Health For All, #CoverageMatters in Spring 2020; tapered by mid‑2021. Compare Health Coverage peaked May 2021–Apr 2022. Claims for Compare Health Coverage overtook others starting 2020, peaking $173K in July 2022.</t>
-  </si>
-  <si>
-    <t>Pandemic onset drove spikes in signups and claims; demand normalized post‑2021.</t>
-  </si>
-  <si>
-    <t>Spend</t>
-  </si>
-  <si>
-    <t>These campaigns and pairs combined strong signup volume with low acquisition cost and moderate claim cost.</t>
-  </si>
-  <si>
-    <t>Tailored Health Plans achieved the highest reach in impressions. Preventive Care News recorded the highest total clicks, based on one of the largest impression volumes. Golden Years Security shows the lowest click volume and one of the smallest impression counts, reflecting low overall reach.</t>
-  </si>
-  <si>
-    <t>Conversions</t>
-  </si>
-  <si>
-    <t>Engagement &amp; Conversions</t>
-  </si>
-  <si>
-    <t>Data Quality Issues</t>
-  </si>
-  <si>
-    <t>Conversions, Spend, &amp; Claims</t>
-  </si>
-  <si>
-    <t>Temporal Trends</t>
+    <t>Tailored Health Plans achieved the highest reach in impressions. Preventive Care News recorded the highest total clicks, based on one of the largest impression volumes. Golden Years Security shows the lowest click volume and one of the smallest impression counts, reflecting low reach and engagement.</t>
+  </si>
+  <si>
+    <t>Reach &amp; Engagement</t>
+  </si>
+  <si>
+    <t>~9M impressions, ~852K clicks. Range: ~17K impressions (Health For All) to ~1.4M (Tailored Health Plans); ~6K clicks (Golden Years Security) to ~137K (Preventive Care News). CTR range: ~1% (Golden Years Security) to ~25% (Health For All).</t>
+  </si>
+  <si>
+    <t>Impressions, Clicks, &amp; CTR / Campaign Category</t>
+  </si>
+  <si>
+    <t>Signups / Campaign Category</t>
+  </si>
+  <si>
+    <t>Spend and CPS / Campaign Category, Campaign Type</t>
+  </si>
+  <si>
+    <t>Signups, CPS, Claim Cost / Campaign Category, Campaign Type</t>
+  </si>
+  <si>
+    <t>Balanced campaign categories: Health For All, #CoverageMatters, #HealthyLiving (3.5K–3.7K signups, CPS $0.7–$1.8, average claim amounts). Within these, specific campaign–type pairs achieved CPS &lt; $1: #CoverageMatters–Product Promotion, #HealthyLiving–Policy Info, Health For All–Health Awareness.</t>
+  </si>
+  <si>
+    <t>CTR, Signups / Campaign Category, Campaign Type</t>
+  </si>
+  <si>
+    <t>CTR Range for campaign category-campaign type pairs: 0% to 41.80%. Preventive Care News–Product Promotion (41.8% CTR, 0 signups); Summer Wellness Tips campaigns (21–26% CTR, 0–2 signups).</t>
+  </si>
+  <si>
+    <t>Claim Amounts  / Campaign Category</t>
+  </si>
+  <si>
+    <t>Signups for #HealthyLiving, Health For All, #CoverageMatters peaked in Spring 2020 and began tapering by early 2021. Compare Health Coverage peaked May 2021–Apr 2022. Claim amounts for #HealthyLiving, Health For All, #CoverageMatters were the highest among others from 2019 to mid-2020. However, claims for Compare Health Coverage overtook all others December 2020, peaking at $173K in July 2022.</t>
+  </si>
+  <si>
+    <t>Pandemic onset drove spikes in signups and claims, also leading to several shifts in campaign performance trends.</t>
+  </si>
+  <si>
+    <t>Signups, Claim Amounts / Campaign Type, State</t>
+  </si>
+  <si>
+    <t>Conversions &amp; Claims (Temporal Trends)</t>
+  </si>
+  <si>
+    <t>Conversions &amp; Claims (Geographical Trends)</t>
+  </si>
+  <si>
+    <t>Signups, Claims / Campaign Category, Month-Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJ accounts for half of all signups (8.2K of 16.3K) and more than half of all claim amounts ($7.3M out of $13M). NJ signups lead in all campaign types, with 4 campaign types exceeding 1K signups. Other states remain below 500 signups per campaign type. </t>
+  </si>
+  <si>
+    <t>NJ’s dominance in both signups and claims reflects concentration of customer volume. Based on the normalized claim cost (avg claim amount, avg claim amount per customer), NJ incurs cost proportional to the number of customers.</t>
+  </si>
+  <si>
+    <t>~$60K total spend. Range:  ~$6.6K (#InsureYour Health) to ~$10K (Compare Health Coverage).  CPS range: $0.65 (#CoverageMatters) to $176.73 (Golden Years Security). Inefficient campaign types: Offer Announcement ($99.70 CPS) and Covid Awareness ($13.14 CPS).</t>
+  </si>
+  <si>
+    <t>Data Considerations</t>
+  </si>
+  <si>
+    <t>Not all campaign categories ran all the different types of campaign types. Campaign date field in the marketing campaigns table was not available. The data has covered amount field in the claims table. Based on the trends comparison, the covered amount is proportional to the claim amount. Two calculated fields were created based on the claim amount: average claim amount (per claim) and average claim amount (per customer).</t>
+  </si>
+  <si>
+    <t>The number and types of campaign types per camapign category and their allocated marketing budget may need to be considered in further analysis. With no campaign date, trends over time and geographic location (state) cannot be shown for the marketing metrics (clicks, impressions, cost, and any calculated fields). For simplicity, claim amount field was used to estimate claim costs rather than the covered amount field. The analysis largely used claim amount (sum) and claim amount (avg per claim), although claim amount (avg per customer) could be useful for additional comparisons.</t>
+  </si>
+  <si>
+    <t>Claim costs concentrated in Compare Health Coverage; other categories clustered in $200s. Compare Health Coverage combined moderate acquisition cost with disproportionately high claim cost.</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1192,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1227,6 +1239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1234,7 +1249,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1245,6 +1260,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1571,21 +1589,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1607,7 +1610,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1851,19 +1869,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F7DA889-199B-496E-9C6E-8DEC86D5D44F}" name="Table5" displayName="Table5" ref="A2:C14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowBorderDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F7DA889-199B-496E-9C6E-8DEC86D5D44F}" name="Table5" displayName="Table5" ref="A2:C14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A2:C14" xr:uid="{1F7DA889-199B-496E-9C6E-8DEC86D5D44F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{41BAED6B-B94E-4391-BA26-36C8C93BA324}" name="Tab" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{BDF7D3CD-D2CA-4594-A188-0962FD0BEE20}" name="Metric / Dimension" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{FDE9DD71-1972-48B1-9EA8-594B9C78437A}" name="Finding" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{41BAED6B-B94E-4391-BA26-36C8C93BA324}" name="Tab" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{BDF7D3CD-D2CA-4594-A188-0962FD0BEE20}" name="Metric / Dimension" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{FDE9DD71-1972-48B1-9EA8-594B9C78437A}" name="Finding" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7BFDA0DF-59F7-41C1-A39B-8F7496B0FED0}" name="Table3" displayName="Table3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7BFDA0DF-59F7-41C1-A39B-8F7496B0FED0}" name="Table3" displayName="Table3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:D10" xr:uid="{7BFDA0DF-59F7-41C1-A39B-8F7496B0FED0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{93F7F8E0-2220-45C0-B232-9A83E0001012}" name="Funnel Stage" dataDxfId="42"/>
@@ -3777,11 +3795,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3919,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216AAD45-DBD3-46D0-9A2B-52F961FC7720}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3932,11 +3950,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -4082,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205C8FE6-68A8-465D-B351-0506895A9BD5}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,11 +4117,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4194,36 +4212,36 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>115</v>
+      <c r="A11" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>120</v>
+        <v>141</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4245,159 +4263,173 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEF3B1B-58D6-4BE2-8E87-21F0AA6F42F7}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="27" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="77.85546875" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="26"/>
+    <col min="3" max="3" width="80.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="24" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="B7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D7" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B8" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B9" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="20" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>151</v>
+      <c r="B11" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/design/pathway_health_log.xlsx
+++ b/design/pathway_health_log.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192FA5B0829D3B0A/Documents/Learning/Analytics Accelerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1095" documentId="8_{3526AFBA-47EF-40FF-A131-EE5AB21064B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADC555F-92C6-45CC-B6BB-949E43E4BF99}"/>
+  <xr:revisionPtr revIDLastSave="1156" documentId="8_{3526AFBA-47EF-40FF-A131-EE5AB21064B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDE2FA7E-0776-44E5-A024-88D7B0AE8770}"/>
   <bookViews>
     <workbookView xWindow="-3488" yWindow="8002" windowWidth="21796" windowHeight="11625" firstSheet="1" activeTab="4" xr2:uid="{DBBFE7E7-9DCB-4607-BB10-B6D3FC44230D}"/>
   </bookViews>
   <sheets>
-    <sheet name="main_metrics" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="main_metrics" sheetId="3" r:id="rId1"/>
     <sheet name="tableau_decisions_log" sheetId="1" r:id="rId2"/>
     <sheet name="sql_insights_log" sheetId="4" r:id="rId3"/>
     <sheet name="tableau_insights_log" sheetId="2" r:id="rId4"/>
     <sheet name="condensed_insights_log" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="186">
   <si>
     <t>Tab</t>
   </si>
@@ -819,9 +818,6 @@
     <t>Campaign categories: Among the highest signups for #HealthyLiving, Health For All, #CoverageMatters  clustered around Spring 2020, the start of the pandemic. Pre-pandemic signups were relatively modest, and signups tapered off close to pre-pandemic levels around mid-2021. Compare Health Coverage saw its peak a bit later on, around May 2021 to April 2022. Most other categories are bringing far fewer signups as a whole and have less noticeable peaks due to the low numbers. That said, there are some fluctuations in the numbers for Tailored Health Plans and Preventive Care News that follow the patterns from the more popular campaign categories, where the signups see a spike in 2020, normalize/dip later in 2020, peak again later in 2021, then start tapering off in subsequent months, getting to very low numbers by 2023.</t>
   </si>
   <si>
-    <t>The line graph shows that the claim amount is consistently proportional to covered amount from 2019 to 2023. It's possible to compare campaign categories with just the claim amount instead of using both.</t>
-  </si>
-  <si>
     <t>Overall Trends: Claim and Covered Amounts</t>
   </si>
   <si>
@@ -899,27 +895,15 @@
     <t>Cause / Explanation</t>
   </si>
   <si>
-    <t>~16K total signups; range: 23 (Golden Years Security) to 3.7K (#HealthyLiving).</t>
-  </si>
-  <si>
-    <t>#HealthyLiving attracted the most conversions; Golden Years Security produced negligible conversions.</t>
-  </si>
-  <si>
     <t>Certain campaigns absorbed budget without meaningful conversions, while others delivered strong cost efficiency.</t>
   </si>
   <si>
-    <t>Engagement did not translate to signups, indicating drop‑off after click.</t>
-  </si>
-  <si>
     <t>Claims</t>
   </si>
   <si>
     <t>~$13M total claim amount; range: $16K (Golden Years Security) to $3.9M (Compare Health Coverage). Avg claim amounts: $208.72 (Tailored Health Plans) to $410.44 (Compare Health Coverage).</t>
   </si>
   <si>
-    <t>49 signups and ~$23K claims unassigned to any campaign category; Family Coverage Plan missing click data.</t>
-  </si>
-  <si>
     <t>Spend</t>
   </si>
   <si>
@@ -948,6 +932,75 @@
   </si>
   <si>
     <t>Impressions, Clicks, CTR, Signups, Signup Rate, CPS, Cost by Campaign Category, Campaign Type</t>
+  </si>
+  <si>
+    <t>Tailored Health Plans achieved the highest reach in impressions. Preventive Care News recorded the highest total clicks, based on one of the largest impression volumes. Golden Years Security shows the lowest click volume and one of the smallest impression counts, reflecting low reach and engagement.</t>
+  </si>
+  <si>
+    <t>Reach &amp; Engagement</t>
+  </si>
+  <si>
+    <t>~9M impressions, ~852K clicks. Range: ~17K impressions (Health For All) to ~1.4M (Tailored Health Plans); ~6K clicks (Golden Years Security) to ~137K (Preventive Care News). CTR range: ~1% (Golden Years Security) to ~25% (Health For All).</t>
+  </si>
+  <si>
+    <t>Impressions, Clicks, &amp; CTR / Campaign Category</t>
+  </si>
+  <si>
+    <t>Spend and CPS / Campaign Category, Campaign Type</t>
+  </si>
+  <si>
+    <t>Signups, CPS, Claim Cost / Campaign Category, Campaign Type</t>
+  </si>
+  <si>
+    <t>Balanced campaign categories: Health For All, #CoverageMatters, #HealthyLiving (3.5K–3.7K signups, CPS $0.7–$1.8, average claim amounts). Within these, specific campaign–type pairs achieved CPS &lt; $1: #CoverageMatters–Product Promotion, #HealthyLiving–Policy Info, Health For All–Health Awareness.</t>
+  </si>
+  <si>
+    <t>CTR, Signups / Campaign Category, Campaign Type</t>
+  </si>
+  <si>
+    <t>Claim Amounts  / Campaign Category</t>
+  </si>
+  <si>
+    <t>Pandemic onset drove spikes in signups and claims, also leading to several shifts in campaign performance trends.</t>
+  </si>
+  <si>
+    <t>Signups, Claim Amounts / Campaign Type, State</t>
+  </si>
+  <si>
+    <t>Conversions &amp; Claims (Temporal Trends)</t>
+  </si>
+  <si>
+    <t>Conversions &amp; Claims (Geographical Trends)</t>
+  </si>
+  <si>
+    <t>Signups, Claims / Campaign Category, Month-Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJ accounts for half of all signups (8.2K of 16.3K) and more than half of all claim amounts ($7.3M out of $13M). NJ signups lead in all campaign types, with 4 campaign types exceeding 1K signups. Other states remain below 500 signups per campaign type. </t>
+  </si>
+  <si>
+    <t>NJ’s dominance in both signups and claims reflects concentration of customer volume. Based on the normalized claim cost (avg claim amount, avg claim amount per customer), NJ incurs cost proportional to the number of customers.</t>
+  </si>
+  <si>
+    <t>~$60K total spend. Range:  ~$6.6K (#InsureYour Health) to ~$10K (Compare Health Coverage).  CPS range: $0.65 (#CoverageMatters) to $176.73 (Golden Years Security). Inefficient campaign types: Offer Announcement ($99.70 CPS) and Covid Awareness ($13.14 CPS).</t>
+  </si>
+  <si>
+    <t>Data Considerations</t>
+  </si>
+  <si>
+    <t>Claim costs concentrated in Compare Health Coverage; other categories clustered in $200s. Compare Health Coverage combined moderate acquisition cost with disproportionately high claim cost.</t>
+  </si>
+  <si>
+    <t>#HealthyLiving attracted the most conversions, Health For All had the highest conversion rate; Golden Years Security produced negligible conversions.</t>
+  </si>
+  <si>
+    <t>Signups, Signup Rate / Campaign Category</t>
+  </si>
+  <si>
+    <t>~16K total signups; range: 23 (Golden Years Security) to 3.7K (#HealthyLiving). Signup rate ranges from 0.01% (Golden Years Security) to 2.08% (Health For All). Health For All’s rate was ~4x higher than the next best (#CoverageMatters).</t>
+  </si>
+  <si>
+    <t>Signups for #HealthyLiving, Health For All, #CoverageMatters peaked in Spring 2020 and began tapering by early 2021. Compare Health Coverage peaked May 2021–Apr 2022. Claim amounts for #HealthyLiving, Health For All, #CoverageMatters were the highest among others from 2019 to mid-2020 (proportional to volume?). Claims for Compare Health Coverage overtook all others December 2020, peaking at $173K in July 2022.</t>
   </si>
   <si>
     <t>Most balanced cost-to-signup ratios (CPS &lt; $1):
@@ -969,79 +1022,84 @@
 Campaign pairs with high CTR but no conversions, suggesting funnel issues: 
 - Preventive Care News-Product Promotion with 41.8% CTR
 - 3 Summer Wellness Tips campaigns: Product Promotion, Covid Awareness, Health Awareness with 21-26% CTR
-Data quality/reporting issue: Family Coverage Plan is missing clicks data.</t>
-  </si>
-  <si>
-    <t>Tailored Health Plans achieved the highest reach in impressions. Preventive Care News recorded the highest total clicks, based on one of the largest impression volumes. Golden Years Security shows the lowest click volume and one of the smallest impression counts, reflecting low reach and engagement.</t>
-  </si>
-  <si>
-    <t>Reach &amp; Engagement</t>
-  </si>
-  <si>
-    <t>~9M impressions, ~852K clicks. Range: ~17K impressions (Health For All) to ~1.4M (Tailored Health Plans); ~6K clicks (Golden Years Security) to ~137K (Preventive Care News). CTR range: ~1% (Golden Years Security) to ~25% (Health For All).</t>
-  </si>
-  <si>
-    <t>Impressions, Clicks, &amp; CTR / Campaign Category</t>
-  </si>
-  <si>
-    <t>Signups / Campaign Category</t>
-  </si>
-  <si>
-    <t>Spend and CPS / Campaign Category, Campaign Type</t>
-  </si>
-  <si>
-    <t>Signups, CPS, Claim Cost / Campaign Category, Campaign Type</t>
-  </si>
-  <si>
-    <t>Balanced campaign categories: Health For All, #CoverageMatters, #HealthyLiving (3.5K–3.7K signups, CPS $0.7–$1.8, average claim amounts). Within these, specific campaign–type pairs achieved CPS &lt; $1: #CoverageMatters–Product Promotion, #HealthyLiving–Policy Info, Health For All–Health Awareness.</t>
-  </si>
-  <si>
-    <t>CTR, Signups / Campaign Category, Campaign Type</t>
-  </si>
-  <si>
-    <t>CTR Range for campaign category-campaign type pairs: 0% to 41.80%. Preventive Care News–Product Promotion (41.8% CTR, 0 signups); Summer Wellness Tips campaigns (21–26% CTR, 0–2 signups).</t>
-  </si>
-  <si>
-    <t>Claim Amounts  / Campaign Category</t>
-  </si>
-  <si>
-    <t>Signups for #HealthyLiving, Health For All, #CoverageMatters peaked in Spring 2020 and began tapering by early 2021. Compare Health Coverage peaked May 2021–Apr 2022. Claim amounts for #HealthyLiving, Health For All, #CoverageMatters were the highest among others from 2019 to mid-2020. However, claims for Compare Health Coverage overtook all others December 2020, peaking at $173K in July 2022.</t>
-  </si>
-  <si>
-    <t>Pandemic onset drove spikes in signups and claims, also leading to several shifts in campaign performance trends.</t>
-  </si>
-  <si>
-    <t>Signups, Claim Amounts / Campaign Type, State</t>
-  </si>
-  <si>
-    <t>Conversions &amp; Claims (Temporal Trends)</t>
-  </si>
-  <si>
-    <t>Conversions &amp; Claims (Geographical Trends)</t>
-  </si>
-  <si>
-    <t>Signups, Claims / Campaign Category, Month-Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NJ accounts for half of all signups (8.2K of 16.3K) and more than half of all claim amounts ($7.3M out of $13M). NJ signups lead in all campaign types, with 4 campaign types exceeding 1K signups. Other states remain below 500 signups per campaign type. </t>
-  </si>
-  <si>
-    <t>NJ’s dominance in both signups and claims reflects concentration of customer volume. Based on the normalized claim cost (avg claim amount, avg claim amount per customer), NJ incurs cost proportional to the number of customers.</t>
-  </si>
-  <si>
-    <t>~$60K total spend. Range:  ~$6.6K (#InsureYour Health) to ~$10K (Compare Health Coverage).  CPS range: $0.65 (#CoverageMatters) to $176.73 (Golden Years Security). Inefficient campaign types: Offer Announcement ($99.70 CPS) and Covid Awareness ($13.14 CPS).</t>
-  </si>
-  <si>
-    <t>Data Considerations</t>
-  </si>
-  <si>
-    <t>Not all campaign categories ran all the different types of campaign types. Campaign date field in the marketing campaigns table was not available. The data has covered amount field in the claims table. Based on the trends comparison, the covered amount is proportional to the claim amount. Two calculated fields were created based on the claim amount: average claim amount (per claim) and average claim amount (per customer).</t>
-  </si>
-  <si>
-    <t>The number and types of campaign types per camapign category and their allocated marketing budget may need to be considered in further analysis. With no campaign date, trends over time and geographic location (state) cannot be shown for the marketing metrics (clicks, impressions, cost, and any calculated fields). For simplicity, claim amount field was used to estimate claim costs rather than the covered amount field. The analysis largely used claim amount (sum) and claim amount (avg per claim), although claim amount (avg per customer) could be useful for additional comparisons.</t>
-  </si>
-  <si>
-    <t>Claim costs concentrated in Compare Health Coverage; other categories clustered in $200s. Compare Health Coverage combined moderate acquisition cost with disproportionately high claim cost.</t>
+Several other campaigns had trouble with signups despite high CTR, like Affordable Plans-Policy Info with 12 signups despite 32.75% CTR and Benefit updates-Policy Info with 12 signups and 30.65% CTR.
+Data quality/reporting issue: Family Coverage Plan is missing clicks data.
+Signup rates ranged from 0.01% (Golden Years Security) to 2.08% (Health For All). Only four campaign categories exceeded 0.1% (#CoverageMatters 0.50%, Compare Health Coverage 0.42%, #HealthyLiving 0.27%, Health For All 2.08%). Health For All’s rate was ~4x higher than the next best (#CoverageMatters).</t>
+  </si>
+  <si>
+    <t>Engagement did not always translate to signups, indicating drop‑off after click.</t>
+  </si>
+  <si>
+    <t>CTR Range for campaign category-campaign type pairs: 0% to 41.80%. Preventive Care News–Product Promotion (41.8% CTR, 0 signups); Summer Wellness Tips campaigns (21–26% CTR, 0–2 signups). Other notable mentions: Affordable Plans-Policy Info: 32.75% CTR, Benefit updates-Policy Info: 30.65% CTR, both just 12 signups.</t>
+  </si>
+  <si>
+    <t>The line graph shows that the claim amount is consistently proportional to covered amount from 2019 to 2023. It's possible to compare campaign categories with just the claim amount instead of using both. Claim amount is highest for Compare Health Coverage category, it rose with the pandemic and continued to rise into 2022, then sharply declining in the months following July 2022. This decline is consistent with the decline in signups during that time period.</t>
+  </si>
+  <si>
+    <t>Click-through-rate (CTR)</t>
+  </si>
+  <si>
+    <t>Cost-per-click (CPC)</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>Signup rate</t>
+  </si>
+  <si>
+    <t>Cost-per-signup (CPS)</t>
+  </si>
+  <si>
+    <t>Claim amount</t>
+  </si>
+  <si>
+    <t>Claim count</t>
+  </si>
+  <si>
+    <t>Average claim amount</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Percentage of people who saw a campaign and clicked on the associated link (clicks/impressions)</t>
+  </si>
+  <si>
+    <t>Average cost in dollars incurred per individual click</t>
+  </si>
+  <si>
+    <t>Number of times a campaign was surfaced to an audience on the internet/social media</t>
+  </si>
+  <si>
+    <t>Number of people who converted to buying an insurance plan</t>
+  </si>
+  <si>
+    <t>Percentage of people who saw a campaign and then signed up for a plan (signups/impressions)</t>
+  </si>
+  <si>
+    <t>Average cost in dollars incurred per signup from each campaign (cost/signups)</t>
+  </si>
+  <si>
+    <t>Cost of filed claims in dollars</t>
+  </si>
+  <si>
+    <t>Number of claims filed</t>
+  </si>
+  <si>
+    <t>Average claim value in dollars per claim (claim amount/claim count)</t>
+  </si>
+  <si>
+    <t>Key Metrics</t>
+  </si>
+  <si>
+    <t>Not all campaign categories ran all the different types of campaign types. Campaign date field and location in the marketing campaigns table was not available. The data has covered amount field in the claims table. Based on the trends comparison, the covered amount is proportional to the claim amount. Two calculated fields were created based on the claim amount: average claim amount (per claim) and average claim amount (per customer).</t>
+  </si>
+  <si>
+    <t>The number and types of campaign types per campaign category and their allocated marketing budget may need to be considered in further analysis. Trends over time and geographic location (state) cannot be shown for the marketing metrics (clicks, impressions, cost, and any calculated fields). For simplicity, claim amount field was primary reference to estimate claim costs rather than the covered amount field. The analysis primarily used claim amount (sum) and claim amount (avg per claim), although claim amount (avg per customer) could be useful for additional comparisons.</t>
+  </si>
+  <si>
+    <t>49 signups unassigned to any campaign category; Health For All’s Product Promotion showed 0 clicks but 266 signups.  Family Coverage Plan’s Product Promotion and Customer Testimonial had no clicks data yet 301 total signups.</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1186,13 +1244,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1242,12 +1329,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,11 +1338,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1589,6 +1681,18 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1616,28 +1720,10 @@
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1650,11 +1736,17 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1791,8 +1883,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52B6A86E-61C9-4C4C-B929-850F7D34F3B3}" name="Table1" displayName="Table1" ref="A2:O15" totalsRowShown="0">
-  <autoFilter ref="A2:O15" xr:uid="{52B6A86E-61C9-4C4C-B929-850F7D34F3B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52B6A86E-61C9-4C4C-B929-850F7D34F3B3}" name="Table1" displayName="Table1" ref="A13:O26" totalsRowShown="0">
+  <autoFilter ref="A13:O26" xr:uid="{52B6A86E-61C9-4C4C-B929-850F7D34F3B3}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{81BAD64B-6A6F-44BC-A3A0-945A29CDA98B}" name="campaign_category"/>
     <tableColumn id="2" xr3:uid="{3AAAB170-070E-4A1C-86E8-9FA477FCC3BF}" name="total_claim_count"/>
@@ -1815,10 +1907,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BAD31E6-7985-447E-8FE6-BA134E4B8EF0}" name="Table13" displayName="Table13" ref="A18:L31" totalsRowShown="0">
-  <autoFilter ref="A18:L31" xr:uid="{9BAD31E6-7985-447E-8FE6-BA134E4B8EF0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:L31">
-    <sortCondition ref="L18:L31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BAD31E6-7985-447E-8FE6-BA134E4B8EF0}" name="Table13" displayName="Table13" ref="A29:L42" totalsRowShown="0">
+  <autoFilter ref="A29:L42" xr:uid="{9BAD31E6-7985-447E-8FE6-BA134E4B8EF0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:L42">
+    <sortCondition ref="L29:L42"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{F84A56C5-DA42-4954-9C76-3C58BF74E6F8}" name="campaign_category"/>
@@ -1839,10 +1931,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{413CD893-B1DA-4830-9E43-82747BC45FAA}" name="Table135" displayName="Table135" ref="A34:F47" totalsRowShown="0">
-  <autoFilter ref="A34:F47" xr:uid="{413CD893-B1DA-4830-9E43-82747BC45FAA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:F47">
-    <sortCondition ref="F18:F31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{413CD893-B1DA-4830-9E43-82747BC45FAA}" name="Table135" displayName="Table135" ref="A45:F58" totalsRowShown="0">
+  <autoFilter ref="A45:F58" xr:uid="{413CD893-B1DA-4830-9E43-82747BC45FAA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:F58">
+    <sortCondition ref="F29:F42"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8902D406-02E2-40E8-96F9-8BE8872B44E8}" name="campaign_category"/>
@@ -1869,25 +1961,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F7DA889-199B-496E-9C6E-8DEC86D5D44F}" name="Table5" displayName="Table5" ref="A2:C14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F7DA889-199B-496E-9C6E-8DEC86D5D44F}" name="Table5" displayName="Table5" ref="A2:C14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
   <autoFilter ref="A2:C14" xr:uid="{1F7DA889-199B-496E-9C6E-8DEC86D5D44F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{41BAED6B-B94E-4391-BA26-36C8C93BA324}" name="Tab" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{BDF7D3CD-D2CA-4594-A188-0962FD0BEE20}" name="Metric / Dimension" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{FDE9DD71-1972-48B1-9EA8-594B9C78437A}" name="Finding" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{41BAED6B-B94E-4391-BA26-36C8C93BA324}" name="Tab" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BDF7D3CD-D2CA-4594-A188-0962FD0BEE20}" name="Metric / Dimension" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{FDE9DD71-1972-48B1-9EA8-594B9C78437A}" name="Finding" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7BFDA0DF-59F7-41C1-A39B-8F7496B0FED0}" name="Table3" displayName="Table3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7BFDA0DF-59F7-41C1-A39B-8F7496B0FED0}" name="Table3" displayName="Table3" ref="A1:D10" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:D10" xr:uid="{7BFDA0DF-59F7-41C1-A39B-8F7496B0FED0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{93F7F8E0-2220-45C0-B232-9A83E0001012}" name="Funnel Stage" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{155588F0-CD50-429F-BC94-7747B903C9E6}" name="Metrics / Dimensions" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{9C306296-B3B1-4924-8CB1-412E84AAC23D}" name="Insight / Finding" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{E0F2908C-9BAC-413F-BAB0-82A8F6E9A1B7}" name="Cause / Explanation" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{93F7F8E0-2220-45C0-B232-9A83E0001012}" name="Funnel Stage" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{155588F0-CD50-429F-BC94-7747B903C9E6}" name="Metrics / Dimensions" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{9C306296-B3B1-4924-8CB1-412E84AAC23D}" name="Insight / Finding" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{E0F2908C-9BAC-413F-BAB0-82A8F6E9A1B7}" name="Cause / Explanation" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2210,17 +2302,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB33BF06-6B91-4E34-A0EF-3209F873381B}">
-  <dimension ref="A2:O47"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -2236,1536 +2328,1616 @@
     <col min="16" max="16" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" t="s">
-        <v>70</v>
+      <c r="A2" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>11016</v>
-      </c>
-      <c r="C3" s="10">
-        <v>227.62</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2507444.39</v>
-      </c>
-      <c r="E3">
-        <v>3536</v>
-      </c>
-      <c r="F3" s="10">
-        <v>2311.33</v>
-      </c>
-      <c r="G3">
-        <v>74240</v>
-      </c>
-      <c r="H3">
-        <v>712100</v>
-      </c>
-      <c r="I3" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.1043</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>71</v>
+      <c r="A3" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>12232</v>
-      </c>
-      <c r="C4" s="10">
-        <v>230.9</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2824383.28</v>
-      </c>
-      <c r="E4">
-        <v>3545</v>
-      </c>
-      <c r="F4" s="10">
-        <v>4346.96</v>
-      </c>
-      <c r="G4">
-        <v>43453</v>
-      </c>
-      <c r="H4">
-        <v>170559</v>
-      </c>
-      <c r="I4" s="11">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.89200000000000002</v>
+      <c r="A4" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>10707</v>
-      </c>
-      <c r="C5" s="10">
-        <v>244.27</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2615390.09</v>
-      </c>
-      <c r="E5">
-        <v>3727</v>
-      </c>
-      <c r="F5" s="10">
-        <v>6676.64</v>
-      </c>
-      <c r="G5">
-        <v>132067.5</v>
-      </c>
-      <c r="H5">
-        <v>1372448</v>
-      </c>
-      <c r="I5" s="11">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="J5" s="11">
-        <v>9.6199999999999994E-2</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1.79</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.45500000000000002</v>
+      <c r="A5" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>9507</v>
-      </c>
-      <c r="C6" s="10">
-        <v>410.44</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3902044.66</v>
-      </c>
-      <c r="E6">
-        <v>2820</v>
-      </c>
-      <c r="F6" s="10">
-        <v>10043.219999999999</v>
-      </c>
-      <c r="G6">
-        <v>93349.5</v>
-      </c>
-      <c r="H6">
-        <v>664710</v>
-      </c>
-      <c r="I6" s="11">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.1404</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="L6" s="10">
-        <v>3.56</v>
-      </c>
-      <c r="M6" s="10">
-        <v>1.79</v>
-      </c>
-      <c r="N6" s="10">
-        <v>1.77</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.98899999999999999</v>
+      <c r="A6" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>2347</v>
-      </c>
-      <c r="C7" s="10">
-        <v>208.72</v>
-      </c>
-      <c r="D7" s="10">
-        <v>489873.68</v>
-      </c>
-      <c r="E7">
-        <v>1107</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5175.1899999999996</v>
-      </c>
-      <c r="G7">
-        <v>92570</v>
-      </c>
-      <c r="H7">
-        <v>1398859</v>
-      </c>
-      <c r="I7" s="11">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="J7" s="11">
-        <v>6.6199999999999995E-2</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="L7" s="10">
-        <v>4.67</v>
-      </c>
-      <c r="M7" s="10">
-        <v>3.56</v>
-      </c>
-      <c r="N7" s="10">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0.312</v>
+      <c r="A7" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>1145</v>
-      </c>
-      <c r="C8" s="10">
-        <v>271.3</v>
-      </c>
-      <c r="D8" s="10">
-        <v>310640.55</v>
-      </c>
-      <c r="E8">
-        <v>643</v>
-      </c>
-      <c r="F8" s="10">
-        <v>6256.81</v>
-      </c>
-      <c r="G8">
-        <v>136663</v>
-      </c>
-      <c r="H8">
-        <v>1116968</v>
-      </c>
-      <c r="I8" s="11">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="L8" s="10">
-        <v>9.73</v>
-      </c>
-      <c r="M8" s="10">
-        <v>4.67</v>
-      </c>
-      <c r="N8" s="10">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="O8" s="11">
-        <v>1.0840000000000001</v>
+      <c r="A8" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9">
-        <v>1266</v>
-      </c>
-      <c r="C9" s="10">
-        <v>254.82</v>
-      </c>
-      <c r="D9" s="10">
-        <v>322598.21999999997</v>
-      </c>
-      <c r="E9">
-        <v>301</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3936.42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9">
-        <v>1106540</v>
-      </c>
-      <c r="I9" s="11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="10">
-        <v>13.08</v>
-      </c>
-      <c r="M9" s="10">
-        <v>9.73</v>
-      </c>
-      <c r="N9" s="10">
-        <v>3.35</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0.34399999999999997</v>
+      <c r="A9" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>702</v>
-      </c>
-      <c r="C10" s="10">
-        <v>219.07</v>
-      </c>
-      <c r="D10" s="10">
-        <v>153788.53</v>
-      </c>
-      <c r="E10">
-        <v>316</v>
-      </c>
-      <c r="F10" s="10">
-        <v>6572.88</v>
-      </c>
-      <c r="G10">
-        <v>74540</v>
-      </c>
-      <c r="H10">
-        <v>970244</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J10" s="11">
-        <v>7.6799999999999993E-2</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="L10" s="10">
-        <v>20.8</v>
-      </c>
-      <c r="M10" s="10">
-        <v>13.08</v>
-      </c>
-      <c r="N10" s="10">
-        <v>7.72</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>174</v>
-      </c>
-      <c r="C11" s="10">
-        <v>237.4</v>
-      </c>
-      <c r="D11" s="10">
-        <v>41308.36</v>
-      </c>
-      <c r="E11">
-        <v>63</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1569.15</v>
-      </c>
-      <c r="G11">
-        <v>41593.5</v>
-      </c>
-      <c r="H11">
-        <v>327507</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.127</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="L11" s="10">
-        <v>24.91</v>
-      </c>
-      <c r="M11" s="10">
-        <v>20.8</v>
-      </c>
-      <c r="N11" s="10">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <v>572</v>
-      </c>
-      <c r="C12" s="10">
-        <v>217.87</v>
-      </c>
-      <c r="D12" s="10">
-        <v>124620.76</v>
-      </c>
-      <c r="E12">
-        <v>163</v>
-      </c>
-      <c r="F12" s="10">
-        <v>7085.68</v>
-      </c>
-      <c r="G12">
-        <v>103667.5</v>
-      </c>
-      <c r="H12">
-        <v>573010</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.18090000000000001</v>
-      </c>
-      <c r="K12" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L12" s="10">
-        <v>43.47</v>
-      </c>
-      <c r="M12" s="10">
-        <v>24.91</v>
-      </c>
-      <c r="N12" s="10">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0.745</v>
+      <c r="A10" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>123</v>
-      </c>
-      <c r="C13" s="10">
-        <v>224.43</v>
-      </c>
-      <c r="D13" s="10">
-        <v>27604.51</v>
-      </c>
-      <c r="E13">
-        <v>45</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2151.31</v>
-      </c>
-      <c r="G13">
-        <v>54145</v>
-      </c>
-      <c r="H13">
-        <v>244280</v>
-      </c>
-      <c r="I13" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.22170000000000001</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="L13" s="10">
-        <v>47.81</v>
-      </c>
-      <c r="M13" s="10">
-        <v>43.47</v>
-      </c>
-      <c r="N13" s="10">
-        <v>4.34</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0.1</v>
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>11016</v>
       </c>
       <c r="C14" s="10">
-        <v>214.51</v>
+        <v>227.62</v>
       </c>
       <c r="D14" s="10">
-        <v>16088.07</v>
+        <v>2507444.39</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>3536</v>
       </c>
       <c r="F14" s="10">
-        <v>4064.7</v>
+        <v>2311.33</v>
       </c>
       <c r="G14">
-        <v>5979</v>
+        <v>74240</v>
       </c>
       <c r="H14">
-        <v>422930</v>
+        <v>712100</v>
       </c>
       <c r="I14" s="11">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J14" s="11">
-        <v>1.41E-2</v>
+        <v>0.1043</v>
       </c>
       <c r="K14" s="10">
-        <v>0.68</v>
+        <v>0.03</v>
       </c>
       <c r="L14" s="10">
-        <v>176.73</v>
-      </c>
-      <c r="M14" s="10">
-        <v>47.81</v>
-      </c>
-      <c r="N14" s="10">
-        <v>128.91999999999999</v>
-      </c>
-      <c r="O14" s="13">
-        <v>2.6970000000000001</v>
+        <v>0.65</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>12232</v>
+      </c>
+      <c r="C15" s="10">
+        <v>230.9</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2824383.28</v>
+      </c>
+      <c r="E15">
+        <v>3545</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4346.96</v>
+      </c>
+      <c r="G15">
+        <v>43453</v>
+      </c>
+      <c r="H15">
+        <v>170559</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>10707</v>
+      </c>
+      <c r="C16" s="10">
+        <v>244.27</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2615390.09</v>
+      </c>
+      <c r="E16">
+        <v>3727</v>
+      </c>
+      <c r="F16" s="10">
+        <v>6676.64</v>
+      </c>
+      <c r="G16">
+        <v>132067.5</v>
+      </c>
+      <c r="H16">
+        <v>1372448</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="J16" s="11">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1.79</v>
+      </c>
+      <c r="M16" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>9507</v>
+      </c>
+      <c r="C17" s="10">
+        <v>410.44</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3902044.66</v>
+      </c>
+      <c r="E17">
+        <v>2820</v>
+      </c>
+      <c r="F17" s="10">
+        <v>10043.219999999999</v>
+      </c>
+      <c r="G17">
+        <v>93349.5</v>
+      </c>
+      <c r="H17">
+        <v>664710</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.1404</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="L17" s="10">
+        <v>3.56</v>
+      </c>
+      <c r="M17" s="10">
+        <v>1.79</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1.77</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>2347</v>
+      </c>
+      <c r="C18" s="10">
+        <v>208.72</v>
+      </c>
+      <c r="D18" s="10">
+        <v>489873.68</v>
+      </c>
+      <c r="E18">
+        <v>1107</v>
+      </c>
+      <c r="F18" s="10">
+        <v>5175.1899999999996</v>
+      </c>
+      <c r="G18">
+        <v>92570</v>
+      </c>
+      <c r="H18">
+        <v>1398859</v>
+      </c>
+      <c r="I18" s="11">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J18" s="11">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="L18" s="10">
+        <v>4.67</v>
+      </c>
+      <c r="M18" s="10">
+        <v>3.56</v>
+      </c>
+      <c r="N18" s="10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>1145</v>
+      </c>
+      <c r="C19" s="10">
+        <v>271.3</v>
+      </c>
+      <c r="D19" s="10">
+        <v>310640.55</v>
+      </c>
+      <c r="E19">
+        <v>643</v>
+      </c>
+      <c r="F19" s="10">
+        <v>6256.81</v>
+      </c>
+      <c r="G19">
+        <v>136663</v>
+      </c>
+      <c r="H19">
+        <v>1116968</v>
+      </c>
+      <c r="I19" s="11">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="L19" s="10">
+        <v>9.73</v>
+      </c>
+      <c r="M19" s="10">
+        <v>4.67</v>
+      </c>
+      <c r="N19" s="10">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O19" s="11">
+        <v>1.0840000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>1266</v>
+      </c>
+      <c r="C20" s="10">
+        <v>254.82</v>
+      </c>
+      <c r="D20" s="10">
+        <v>322598.21999999997</v>
+      </c>
+      <c r="E20">
+        <v>301</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3936.42</v>
+      </c>
+      <c r="G20" t="s">
         <v>71</v>
       </c>
-      <c r="B15">
+      <c r="H20">
+        <v>1106540</v>
+      </c>
+      <c r="I20" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="10">
+        <v>13.08</v>
+      </c>
+      <c r="M20" s="10">
+        <v>9.73</v>
+      </c>
+      <c r="N20" s="10">
+        <v>3.35</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>702</v>
+      </c>
+      <c r="C21" s="10">
+        <v>219.07</v>
+      </c>
+      <c r="D21" s="10">
+        <v>153788.53</v>
+      </c>
+      <c r="E21">
+        <v>316</v>
+      </c>
+      <c r="F21" s="10">
+        <v>6572.88</v>
+      </c>
+      <c r="G21">
+        <v>74540</v>
+      </c>
+      <c r="H21">
+        <v>970244</v>
+      </c>
+      <c r="I21" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J21" s="11">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="L21" s="10">
+        <v>20.8</v>
+      </c>
+      <c r="M21" s="10">
+        <v>13.08</v>
+      </c>
+      <c r="N21" s="10">
+        <v>7.72</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>174</v>
+      </c>
+      <c r="C22" s="10">
+        <v>237.4</v>
+      </c>
+      <c r="D22" s="10">
+        <v>41308.36</v>
+      </c>
+      <c r="E22">
+        <v>63</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1569.15</v>
+      </c>
+      <c r="G22">
+        <v>41593.5</v>
+      </c>
+      <c r="H22">
+        <v>327507</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.127</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L22" s="10">
+        <v>24.91</v>
+      </c>
+      <c r="M22" s="10">
+        <v>20.8</v>
+      </c>
+      <c r="N22" s="10">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>572</v>
+      </c>
+      <c r="C23" s="10">
+        <v>217.87</v>
+      </c>
+      <c r="D23" s="10">
+        <v>124620.76</v>
+      </c>
+      <c r="E23">
+        <v>163</v>
+      </c>
+      <c r="F23" s="10">
+        <v>7085.68</v>
+      </c>
+      <c r="G23">
+        <v>103667.5</v>
+      </c>
+      <c r="H23">
+        <v>573010</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="K23" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>43.47</v>
+      </c>
+      <c r="M23" s="10">
+        <v>24.91</v>
+      </c>
+      <c r="N23" s="10">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>123</v>
+      </c>
+      <c r="C24" s="10">
+        <v>224.43</v>
+      </c>
+      <c r="D24" s="10">
+        <v>27604.51</v>
+      </c>
+      <c r="E24">
+        <v>45</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2151.31</v>
+      </c>
+      <c r="G24">
+        <v>54145</v>
+      </c>
+      <c r="H24">
+        <v>244280</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.22170000000000001</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L24" s="10">
+        <v>47.81</v>
+      </c>
+      <c r="M24" s="10">
+        <v>43.47</v>
+      </c>
+      <c r="N24" s="10">
+        <v>4.34</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25" s="10">
+        <v>214.51</v>
+      </c>
+      <c r="D25" s="10">
+        <v>16088.07</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4064.7</v>
+      </c>
+      <c r="G25">
+        <v>5979</v>
+      </c>
+      <c r="H25">
+        <v>422930</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1.41E-2</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="L25" s="10">
+        <v>176.73</v>
+      </c>
+      <c r="M25" s="10">
+        <v>47.81</v>
+      </c>
+      <c r="N25" s="10">
+        <v>128.91999999999999</v>
+      </c>
+      <c r="O25" s="13">
+        <v>2.6970000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26">
         <v>132</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C26" s="10">
         <v>176.34</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D26" s="10">
         <v>23277.47</v>
       </c>
-      <c r="E15">
+      <c r="E26">
         <v>49</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H26" t="s">
         <v>71</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I26" t="s">
         <v>71</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J26" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M26" s="10">
         <v>176.73</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F29" t="s">
         <v>64</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G29" t="s">
         <v>61</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H29" t="s">
         <v>62</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I29" t="s">
         <v>67</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J29" t="s">
         <v>63</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K29" t="s">
         <v>66</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B30" s="15">
         <v>11016</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C30" s="10">
         <v>227.62</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D30" s="10">
         <v>2507444.39</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E30" s="15">
         <v>3536</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F30" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G30" s="10">
         <v>2311.33</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H30" s="15">
         <v>74240</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I30" s="10">
         <v>0.03</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J30" s="15">
         <v>712100</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K30" s="11">
         <v>0.1043</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L30" s="17">
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B31" s="15">
         <v>12232</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C31" s="10">
         <v>230.9</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D31" s="10">
         <v>2824383.28</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E31" s="15">
         <v>3545</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F31" s="11">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G31" s="10">
         <v>4346.96</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H31" s="15">
         <v>43453</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I31" s="10">
         <v>0.1</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J31" s="15">
         <v>170559</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K31" s="11">
         <v>0.25480000000000003</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L31" s="17">
         <v>1.23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B32" s="15">
         <v>10707</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C32" s="10">
         <v>244.27</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D32" s="10">
         <v>2615390.09</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E32" s="15">
         <v>3727</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F32" s="11">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G32" s="10">
         <v>6676.64</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H32" s="15">
         <v>132067.5</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I32" s="10">
         <v>0.05</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J32" s="15">
         <v>1372448</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K32" s="11">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L32" s="17">
         <v>1.79</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B33" s="15">
         <v>9507</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C33" s="10">
         <v>410.44</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D33" s="10">
         <v>3902044.66</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E33" s="15">
         <v>2820</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F33" s="11">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G33" s="10">
         <v>10043.219999999999</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H33" s="15">
         <v>93349.5</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I33" s="10">
         <v>0.11</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J33" s="15">
         <v>664710</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K33" s="11">
         <v>0.1404</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L33" s="17">
         <v>3.56</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B34" s="15">
         <v>2347</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C34" s="10">
         <v>208.72</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D34" s="10">
         <v>489873.68</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E34" s="15">
         <v>1107</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F34" s="11">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G34" s="10">
         <v>5175.1899999999996</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H34" s="15">
         <v>92570</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I34" s="10">
         <v>0.06</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J34" s="15">
         <v>1398859</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K34" s="11">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L34" s="17">
         <v>4.67</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B35" s="15">
         <v>1145</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C35" s="10">
         <v>271.3</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D35" s="10">
         <v>310640.55</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E35" s="15">
         <v>643</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F35" s="11">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G35" s="10">
         <v>6256.81</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H35" s="15">
         <v>136663</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I35" s="10">
         <v>0.05</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J35" s="15">
         <v>1116968</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K35" s="11">
         <v>0.12239999999999999</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L35" s="17">
         <v>9.73</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B36" s="15">
         <v>1266</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C36" s="10">
         <v>254.82</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D36" s="10">
         <v>322598.21999999997</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E36" s="15">
         <v>301</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F36" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G36" s="10">
         <v>3936.42</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H36" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J36" s="15">
         <v>1106540</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K36" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L36" s="17">
         <v>13.08</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B37" s="15">
         <v>702</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C37" s="10">
         <v>219.07</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D37" s="10">
         <v>153788.53</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E37" s="15">
         <v>316</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F37" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G37" s="10">
         <v>6572.88</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H37" s="15">
         <v>74540</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I37" s="10">
         <v>0.09</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J37" s="15">
         <v>970244</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K37" s="11">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L37" s="17">
         <v>20.8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B38" s="15">
         <v>174</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C38" s="10">
         <v>237.4</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D38" s="10">
         <v>41308.36</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E38" s="15">
         <v>63</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F38" s="11">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G38" s="10">
         <v>1569.15</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H38" s="15">
         <v>41593.5</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I38" s="10">
         <v>0.04</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J38" s="15">
         <v>327507</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K38" s="11">
         <v>0.127</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L38" s="17">
         <v>24.91</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B39" s="15">
         <v>572</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C39" s="10">
         <v>217.87</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D39" s="10">
         <v>124620.76</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E39" s="15">
         <v>163</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F39" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G39" s="10">
         <v>7085.68</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H39" s="15">
         <v>103667.5</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I39" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J39" s="15">
         <v>573010</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K39" s="11">
         <v>0.18090000000000001</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L39" s="17">
         <v>43.47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B40" s="15">
         <v>123</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C40" s="10">
         <v>224.43</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D40" s="10">
         <v>27604.51</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E40" s="15">
         <v>45</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F40" s="11">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G40" s="10">
         <v>2151.31</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H40" s="15">
         <v>54145</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I40" s="10">
         <v>0.04</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J40" s="15">
         <v>244280</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K40" s="11">
         <v>0.22170000000000001</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L40" s="17">
         <v>47.81</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B41" s="15">
         <v>75</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C41" s="10">
         <v>214.51</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D41" s="10">
         <v>16088.07</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E41" s="15">
         <v>23</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F41" s="11">
         <v>1E-4</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G41" s="10">
         <v>4064.7</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H41" s="15">
         <v>5979</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I41" s="10">
         <v>0.68</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J41" s="15">
         <v>422930</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K41" s="11">
         <v>1.41E-2</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L41" s="17">
         <v>176.73</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B42" s="15">
         <v>132</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C42" s="10">
         <v>176.34</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D42" s="10">
         <v>23277.47</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E42" s="15">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F42" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H42" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I42" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J42" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K42" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L42" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D45" t="s">
         <v>67</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E45" t="s">
         <v>66</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B46" s="10">
         <v>227.62</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C46" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D46" s="10">
         <v>0.03</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E46" s="11">
         <v>0.1043</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F46" s="17">
         <v>0.65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B47" s="10">
         <v>230.9</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C47" s="11">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D47" s="10">
         <v>0.1</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E47" s="11">
         <v>0.25480000000000003</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F47" s="17">
         <v>1.23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B48" s="10">
         <v>244.27</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C48" s="11">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D48" s="10">
         <v>0.05</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E48" s="11">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F48" s="17">
         <v>1.79</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B49" s="10">
         <v>410.44</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C49" s="11">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D49" s="10">
         <v>0.11</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E49" s="11">
         <v>0.1404</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F49" s="17">
         <v>3.56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B50" s="10">
         <v>208.72</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C50" s="11">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D50" s="10">
         <v>0.06</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E50" s="11">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F50" s="17">
         <v>4.67</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B51" s="10">
         <v>271.3</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C51" s="11">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D51" s="10">
         <v>0.05</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E51" s="11">
         <v>0.12239999999999999</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F51" s="17">
         <v>9.73</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B52" s="10">
         <v>254.82</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C52" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D52" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E52" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F52" s="17">
         <v>13.08</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B53" s="10">
         <v>219.07</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C53" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D53" s="10">
         <v>0.09</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E53" s="11">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F53" s="17">
         <v>20.8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B54" s="10">
         <v>237.4</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C54" s="11">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D54" s="10">
         <v>0.04</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E54" s="11">
         <v>0.127</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F54" s="17">
         <v>24.91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B55" s="10">
         <v>217.87</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C55" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D55" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E55" s="11">
         <v>0.18090000000000001</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F55" s="17">
         <v>43.47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B56" s="10">
         <v>224.43</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C56" s="11">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D56" s="10">
         <v>0.04</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E56" s="11">
         <v>0.22170000000000001</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F56" s="17">
         <v>47.81</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B57" s="10">
         <v>214.51</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C57" s="11">
         <v>1E-4</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D57" s="10">
         <v>0.68</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E57" s="11">
         <v>1.41E-2</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F57" s="17">
         <v>176.73</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B58" s="10">
         <v>176.34</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C58" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E58" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F58" s="17" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B19:B31">
+  <conditionalFormatting sqref="B30:B42">
     <cfRule type="top10" dxfId="31" priority="37" percent="1" bottom="1" rank="10"/>
     <cfRule type="top10" dxfId="30" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B47">
+  <conditionalFormatting sqref="B46:B58">
     <cfRule type="top10" dxfId="29" priority="13" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="28" priority="14" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C31">
+  <conditionalFormatting sqref="C30:C42">
     <cfRule type="top10" dxfId="27" priority="35" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="26" priority="36" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C47">
+  <conditionalFormatting sqref="C46:C58">
     <cfRule type="top10" dxfId="25" priority="9" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="24" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D31">
+  <conditionalFormatting sqref="D30:D42">
     <cfRule type="top10" dxfId="23" priority="33" percent="1" bottom="1" rank="10"/>
     <cfRule type="top10" dxfId="22" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D47">
+  <conditionalFormatting sqref="D46:D58">
     <cfRule type="top10" dxfId="21" priority="5" percent="1" bottom="1" rank="10"/>
     <cfRule type="top10" dxfId="20" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E31">
+  <conditionalFormatting sqref="E30:E42">
     <cfRule type="top10" dxfId="19" priority="32" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="18" priority="47" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E47">
+  <conditionalFormatting sqref="E46:E58">
     <cfRule type="top10" dxfId="17" priority="3" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="16" priority="17" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F31">
+  <conditionalFormatting sqref="F30:F42">
     <cfRule type="top10" dxfId="15" priority="31" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="14" priority="46" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F47">
+  <conditionalFormatting sqref="F46:F58">
     <cfRule type="top10" dxfId="13" priority="1" percent="1" bottom="1" rank="10"/>
     <cfRule type="top10" dxfId="12" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G31">
+  <conditionalFormatting sqref="G30:G42">
     <cfRule type="top10" dxfId="11" priority="30" percent="1" bottom="1" rank="10"/>
     <cfRule type="top10" dxfId="10" priority="45" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H31">
+  <conditionalFormatting sqref="H30:H42">
     <cfRule type="top10" dxfId="9" priority="29" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="8" priority="44" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I31">
+  <conditionalFormatting sqref="I30:I42">
     <cfRule type="top10" dxfId="7" priority="27" percent="1" bottom="1" rank="10"/>
     <cfRule type="top10" dxfId="6" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J31">
+  <conditionalFormatting sqref="J30:J42">
     <cfRule type="top10" dxfId="5" priority="26" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="4" priority="42" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K31">
+  <conditionalFormatting sqref="K30:K42">
     <cfRule type="top10" dxfId="3" priority="25" percent="1" rank="10"/>
     <cfRule type="top10" dxfId="2" priority="41" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L31">
+  <conditionalFormatting sqref="L30:L42">
     <cfRule type="top10" dxfId="1" priority="23" percent="1" bottom="1" rank="10"/>
     <cfRule type="top10" dxfId="0" priority="24" percent="1" rank="10"/>
   </conditionalFormatting>
@@ -3782,7 +3954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490BC9EA-5365-48EE-8B4C-8AC2C9BC31BE}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3795,11 +3967,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3938,7 +4110,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,11 +4122,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -4100,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205C8FE6-68A8-465D-B351-0506895A9BD5}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4117,11 +4289,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4145,15 +4317,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4161,87 +4333,87 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="B10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>140</v>
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4266,170 +4438,170 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="25" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="77.85546875" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="27"/>
+    <col min="3" max="3" width="80.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="B10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="20" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>163</v>
-      </c>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
